--- a/Общая таблица по вике 07,08,2022.xlsx
+++ b/Общая таблица по вике 07,08,2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Statistica_for_Vicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B6514-4226-4BF2-827F-CCFAE0AE06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295C964-1347-4A5F-9AF6-F74D4464F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH растворов" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Гистидин" sheetId="2" r:id="rId3"/>
     <sheet name="Глутамин" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AF114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4824,7 +4824,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4832,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AL210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145:K145"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10377,8 +10377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AL210"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15888,6 +15888,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Общая таблица по вике 07,08,2022.xlsx
+++ b/Общая таблица по вике 07,08,2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Statistica_for_Vicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295C964-1347-4A5F-9AF6-F74D4464F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921238F-A1C7-4671-B1A0-71771779B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,7 +1925,7 @@
   <dimension ref="A2:AF114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3044,13 +3044,13 @@
         <v>24</v>
       </c>
       <c r="F27" s="39">
-        <v>15.32015</v>
+        <v>14.76881</v>
       </c>
       <c r="G27" s="39">
-        <v>1.193336</v>
+        <v>3.2528280000000001</v>
       </c>
       <c r="H27" s="39">
-        <v>0.24358869999999999</v>
+        <v>0.66398069999999998</v>
       </c>
       <c r="I27" s="18">
         <v>1.3780000000000001E-3</v>
@@ -3269,6 +3269,9 @@
       </c>
       <c r="D37" t="s">
         <v>10</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
       </c>
       <c r="F37" s="39">
         <v>0.45924100000000001</v>
@@ -3307,14 +3310,17 @@
       <c r="D38" t="s">
         <v>50</v>
       </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
       <c r="F38" s="39">
-        <v>0.56140330000000005</v>
+        <v>0.55867060000000002</v>
       </c>
       <c r="G38" s="39">
-        <v>3.8790329999999998E-2</v>
+        <v>2.666518E-2</v>
       </c>
       <c r="H38" s="64">
-        <v>3.8354449999999998E-3</v>
+        <v>6.666295E-3</v>
       </c>
       <c r="I38" s="12">
         <v>9.9369999999999992E-4</v>
@@ -3452,14 +3458,17 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
       <c r="F44">
-        <v>0.4361989</v>
+        <v>0.42378300000000002</v>
       </c>
       <c r="G44" s="29">
-        <v>7.8428629999999999E-2</v>
+        <v>6.5467689999999995E-2</v>
       </c>
       <c r="H44">
-        <v>9.8810779999999997E-3</v>
+        <v>6.9009010000000001E-3</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="37"/>
@@ -3470,14 +3479,17 @@
       <c r="D45" t="s">
         <v>50</v>
       </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
       <c r="F45">
-        <v>0.4897299</v>
+        <v>0.49010199999999998</v>
       </c>
       <c r="G45">
-        <v>1.806431E-2</v>
+        <v>1.7774479999999999E-2</v>
       </c>
       <c r="H45">
-        <v>7.374724E-3</v>
+        <v>4.443621E-3</v>
       </c>
       <c r="I45" s="10">
         <v>1.4009999999999999E-4</v>
@@ -4832,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AL210"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7142,7 +7154,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="62">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F65" s="39">
         <v>0.45924100000000001</v>
@@ -7163,7 +7175,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F66" s="39">
         <v>0.56140330000000005</v>
@@ -7186,16 +7198,16 @@
         <v>51</v>
       </c>
       <c r="E67" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F67" s="39">
-        <v>0.4703466</v>
+        <v>0.4838192</v>
       </c>
       <c r="G67" s="39">
-        <v>4.6390000000000001E-2</v>
+        <v>3.0345819999999999E-2</v>
       </c>
       <c r="H67" s="64">
-        <v>1.8938654999999999E-2</v>
+        <v>7.5864540000000003E-3</v>
       </c>
       <c r="J67" s="23">
         <v>4.4120000000000001E-3</v>
@@ -7258,8 +7270,7 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <f>129-30</f>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F71">
         <v>0.4361989</v>
@@ -7279,7 +7290,7 @@
         <v>50</v>
       </c>
       <c r="E72" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>0.4897299</v>
@@ -7301,16 +7312,16 @@
         <v>51</v>
       </c>
       <c r="E73" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F73" s="39">
-        <v>0.47523389999999999</v>
+        <v>0.46942089999999997</v>
       </c>
       <c r="G73" s="39">
-        <v>2.3465090000000001E-2</v>
+        <v>1.6912859999999998E-2</v>
       </c>
       <c r="H73" s="64">
-        <v>9.5795829999999992E-3</v>
+        <v>4.2282140000000001E-3</v>
       </c>
       <c r="I73" s="37"/>
       <c r="J73" s="75">
@@ -10377,8 +10388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AL210"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12321,6 +12332,10 @@
       <c r="K47" s="7"/>
       <c r="L47" s="35"/>
       <c r="M47" s="7"/>
+      <c r="O47">
+        <f>F46*100/F45</f>
+        <v>91.138883523514423</v>
+      </c>
       <c r="R47" s="23"/>
       <c r="S47" s="80" t="s">
         <v>24</v>
@@ -12670,7 +12685,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="62">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F65" s="39">
         <v>0.45924100000000001</v>
@@ -12689,7 +12704,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F66" s="39">
         <v>0.56140330000000005</v>
@@ -12770,8 +12785,7 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <f>129-30</f>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F71" s="39">
         <v>0.4361989</v>
@@ -12790,7 +12804,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="62">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F72" s="39">
         <v>0.4897299</v>
